--- a/testdata/EmpSearch_Testdata.xlsx
+++ b/testdata/EmpSearch_Testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shruti_dhume\eclipse-workspace\OrangeHRM\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353FBA32-A7BC-4092-9D28-7244B5A5FBC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E781A7-4400-476E-A909-6C35BD75E220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>EMP_Name</t>
   </si>
@@ -39,28 +39,31 @@
     <t>Full-Time Permanent</t>
   </si>
   <si>
-    <t>Linda  Anderson</t>
-  </si>
-  <si>
     <t>0001</t>
   </si>
   <si>
-    <t>Fiona Grace</t>
-  </si>
-  <si>
-    <t>0070</t>
-  </si>
-  <si>
-    <t>Part-Time Contract</t>
-  </si>
-  <si>
-    <t>Russel Hamilton</t>
-  </si>
-  <si>
-    <t>0008</t>
-  </si>
-  <si>
-    <t>Full-TimeProbation</t>
+    <t>Linda Anderson</t>
+  </si>
+  <si>
+    <t>Robert Craig</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>Steven Edwards</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>Thomas Fleming</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>Full-Time Contract</t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,10 +407,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -421,18 +424,29 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
